--- a/data/menu.xlsx
+++ b/data/menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\law\Lcode\modules\ai_waiter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ai_waiter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E96E0F-932C-4CC2-B3AD-4E22A8D803C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550C48F-A6E6-45C5-BA4B-138222F3D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24420" windowHeight="16220" xr2:uid="{E83D8315-50D5-4511-B978-9C7D7494BA72}"/>
+    <workbookView xWindow="12765" yWindow="-13755" windowWidth="12180" windowHeight="12330" xr2:uid="{E83D8315-50D5-4511-B978-9C7D7494BA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,90 @@
   </si>
   <si>
     <t>柠檬绿茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本店不提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有额外的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗吸管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当客户的饮品中有加料（如珍珠，椰果）时，选用粗吸管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细吸管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性木筷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料勺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿纸巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本店不提供，但是有塑料袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌用品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,19 +640,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AFAFF6-188A-46F3-B947-9A7992928790}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="5" max="5" width="44.4140625" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -613,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -641,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -655,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -669,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -683,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -700,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -714,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -731,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -748,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -762,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -779,7 +863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -796,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -813,7 +897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -830,7 +914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -847,7 +931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -864,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -881,7 +965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -895,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -909,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -923,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -937,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -952,6 +1036,252 @@
       </c>
       <c r="E25" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/menu.xlsx
+++ b/data/menu.xlsx
@@ -942,7 +942,7 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
